--- a/target/classes/Excel.xlsx
+++ b/target/classes/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Imię</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Pesel</t>
+  </si>
+  <si>
+    <t>Cena wizyty</t>
   </si>
   <si>
     <t>Jakub</t>
@@ -48,18 +51,6 @@
   </si>
   <si>
     <t>82345678910</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Dawid</t>
-  </si>
-  <si>
-    <t>Sujkowski</t>
-  </si>
-  <si>
-    <t>94070202118</t>
   </si>
 </sst>
 </file>
@@ -104,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,60 +111,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>520.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="D4" t="n">
+        <v>450.99</v>
       </c>
     </row>
   </sheetData>
